--- a/Esercitazioni_AC/2022_01_11/Es1_Cognome_Nome_CEM_2022_01_11.xlsx
+++ b/Esercitazioni_AC/2022_01_11/Es1_Cognome_Nome_CEM_2022_01_11.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Soluzione Es.1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Soluzione Es.2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Soluzione Es.3 " sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Soluzione Es.4,5" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Soluzione Es.1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Soluzione Es.2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Soluzione Es.3 " sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Soluzione Es.4,5" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="90">
   <si>
     <r>
       <rPr>
@@ -281,52 +281,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Tempo di clock minimo = 12</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.      Si disegni il grafo delle dipendenze e si deduca il numero minimo di periodi di clock necessario a eseguire il codice assegnato tenendo conto solo delle dipendenze trovate (1 punto).</t>
   </si>
   <si>
     <t xml:space="preserve">Alee: (WAW, RAW, WAR) #si inseriscano le alee presenti per istruzione.</t>
   </si>
   <si>
-    <t xml:space="preserve">RAW f1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAW f3, WAR f1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAR f3, RAW f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAW f1, RAW f3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Da completare con la soluzione dell'esercizio.  Si riporti il grafo delle dipendenze e si deduca il numero minimo di periodi di clock necessario a eseguire il codice assegnato tenendo conto solo delle dipendenze trovate.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">Da completare con la soluzione dell'esercizio.  Si riporti il grafo delle dipendenze e si deduca il numero minimo di periodi di clock necessario a eseguire il codice assegnato tenendo conto solo delle dipendenze trovate.
 Si codifichi il grafo delle dipendenze come una lista con il seguente formato:
 si descrivano i nodi del grafo tra parentesi tonde. Separando il numero dell'istruzione ed il numero di cicli spesi in execute dell'istruzione con una virgola all'interno di parentesi tonde. Es.: (id_istruzione, numero_cicli) </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Dipendenze</t>
@@ -348,35 +311,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tot</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(1,2)→(3,3)→(5,3)</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">→(6,2)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(2,4)→(4,3)→(6,2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempo di clock minimo = 16</t>
   </si>
   <si>
     <t xml:space="preserve">3.      Si mostri la dinamica dell’esecuzione nel caso della CPU considerata nel punto 1 con 1 CRB, uno stadio di IF e uno di ID, e 2 RS per ognuna delle tre unità funzionali </t>
@@ -517,30 +451,6 @@
     <t xml:space="preserve">L</t>
   </si>
   <si>
-    <t xml:space="preserve">A0_E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D0_E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M0_W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M0_E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1_W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1_E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M0_R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0_W</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.      E’ possibile ridurre il numero di periodi di clock necessario ad eseguire il codice assegnato rispetto al valore risultante dalla risposta al punto 3? Si punti al numero minore possibile di periodi di clock e al numero minimo di modifiche, supponendo di poter apportare solo le seguenti modifiche all’architettura: </t>
   </si>
   <si>
@@ -669,9 +579,6 @@
     <t xml:space="preserve">Si completi descivendo la nuova architettura del datapath. Numero di unità funzionali nel datapath, CRB e profondità delle RSS</t>
   </si>
   <si>
-    <t xml:space="preserve">X: </t>
-  </si>
-  <si>
     <t xml:space="preserve"># eventuali unità di esecuzione agguntive.</t>
   </si>
   <si>
@@ -685,12 +592,6 @@
   </si>
   <si>
     <t xml:space="preserve"># numero CRB complessivo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X0_W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X0_E</t>
   </si>
   <si>
     <r>
@@ -727,12 +628,6 @@
   <si>
     <t xml:space="preserve">f3</t>
   </si>
-  <si>
-    <t xml:space="preserve">D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1</t>
-  </si>
 </sst>
 </file>
 
@@ -741,7 +636,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -837,21 +732,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -888,12 +768,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1190,7 +1064,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="109">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1319,7 +1193,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1331,23 +1205,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1471,10 +1345,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1495,10 +1365,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1527,7 +1393,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1535,7 +1401,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1631,7 +1497,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1707,6 +1573,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1714,11 +1686,11 @@
   </sheetPr>
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P32" activeCellId="0" sqref="P32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V22" activeCellId="0" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7"/>
@@ -2139,24 +2111,16 @@
         <v>24</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="20" t="n">
-        <v>2</v>
-      </c>
+      <c r="C17" s="20"/>
       <c r="D17" s="20"/>
-      <c r="E17" s="20" t="n">
-        <v>2</v>
-      </c>
+      <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="21" t="n">
-        <v>3</v>
-      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="21" t="n">
-        <v>7</v>
-      </c>
+      <c r="L17" s="21"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -2166,24 +2130,16 @@
         <v>25</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="20" t="n">
-        <v>3</v>
-      </c>
+      <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="20" t="n">
-        <v>3</v>
-      </c>
+      <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="21" t="n">
-        <v>3</v>
-      </c>
+      <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="21" t="n">
-        <v>12</v>
-      </c>
+      <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
@@ -2193,24 +2149,16 @@
         <v>26</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="20" t="n">
-        <v>1</v>
-      </c>
+      <c r="C19" s="20"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="20" t="n">
-        <v>4</v>
-      </c>
+      <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="21" t="n">
-        <v>3</v>
-      </c>
+      <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="21" t="n">
-        <v>7</v>
-      </c>
+      <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
@@ -2235,9 +2183,7 @@
       <c r="O21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -2370,11 +2316,11 @@
   </sheetPr>
   <dimension ref="A1:AQ40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U15" activeCellId="0" sqref="U15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6"/>
@@ -2394,7 +2340,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -2448,7 +2394,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2539,9 +2485,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="26" t="s">
-        <v>31</v>
-      </c>
+      <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="27" t="s">
@@ -2562,9 +2506,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
     </row>
@@ -2574,9 +2516,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
     </row>
@@ -2586,9 +2526,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="26" t="s">
-        <v>34</v>
-      </c>
+      <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
     </row>
@@ -2754,7 +2692,7 @@
     </row>
     <row r="15" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -2773,13 +2711,13 @@
     </row>
     <row r="16" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -2822,13 +2760,13 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="30" t="s">
@@ -2836,15 +2774,15 @@
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J17" s="30"/>
       <c r="K17" s="30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L17" s="30"/>
       <c r="M17" s="30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
@@ -2867,60 +2805,36 @@
       <c r="O18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="31" t="s">
-        <v>43</v>
-      </c>
+      <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
-      <c r="E19" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="21" t="n">
-        <v>10</v>
-      </c>
+      <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="21" t="n">
-        <v>4</v>
-      </c>
+      <c r="K19" s="21"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="21" t="n">
-        <v>16</v>
-      </c>
+      <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
-      <c r="E20" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="21" t="n">
-        <v>9</v>
-      </c>
+      <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="21" t="n">
-        <v>3</v>
-      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="21" t="n">
-        <v>14</v>
-      </c>
+      <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
     </row>
@@ -2992,9 +2906,7 @@
       <c r="Q24" s="33"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -3329,7 +3241,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6"/>
@@ -3350,7 +3262,7 @@
   <sheetData>
     <row r="1" s="37" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="35" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -3390,7 +3302,7 @@
       <c r="AK1" s="35"/>
       <c r="AL1" s="35"/>
       <c r="AM1" s="36" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AN1" s="36"/>
       <c r="AO1" s="36"/>
@@ -3399,7 +3311,7 @@
     </row>
     <row r="2" s="40" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -3599,7 +3511,7 @@
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -3646,15 +3558,15 @@
       <c r="AP7" s="5"/>
       <c r="AQ7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="53" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -3707,7 +3619,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="54" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
@@ -3763,248 +3675,248 @@
         <v>1</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="57" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I11" s="58"/>
       <c r="J11" s="59" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K11" s="58"/>
       <c r="L11" s="57" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M11" s="58"/>
       <c r="N11" s="57" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O11" s="58"/>
       <c r="P11" s="57" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="58"/>
       <c r="R11" s="57" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="S11" s="58"/>
       <c r="T11" s="57" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="U11" s="58"/>
       <c r="V11" s="57" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="W11" s="58"/>
       <c r="X11" s="59" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Y11" s="58"/>
       <c r="Z11" s="57" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AA11" s="58"/>
       <c r="AB11" s="57" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AC11" s="58"/>
       <c r="AD11" s="57" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AE11" s="58"/>
       <c r="AF11" s="57" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AG11" s="58"/>
       <c r="AH11" s="57" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AI11" s="58"/>
       <c r="AJ11" s="57" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="AK11" s="58"/>
       <c r="AL11" s="57" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AM11" s="58"/>
       <c r="AN11" s="57" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AO11" s="58"/>
       <c r="AP11" s="57" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AQ11" s="58"/>
       <c r="AR11" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AS11" s="58"/>
       <c r="AT11" s="60" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AU11" s="60"/>
       <c r="AV11" s="60" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AW11" s="60"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="61"/>
       <c r="B12" s="62" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="P12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="R12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="S12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="T12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="U12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="V12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="W12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="X12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Y12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AA12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AB12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AC12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AD12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AE12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AF12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AI12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AJ12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AK12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AL12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AM12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AN12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AO12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AP12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AQ12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AR12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AS12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AT12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AU12" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AV12" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AW12" s="64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="55" t="n">
         <v>1</v>
       </c>
@@ -4012,25 +3924,15 @@
       <c r="C13" s="66"/>
       <c r="D13" s="66"/>
       <c r="E13" s="67"/>
-      <c r="F13" s="68" t="s">
-        <v>39</v>
-      </c>
+      <c r="F13" s="68"/>
       <c r="G13" s="68"/>
-      <c r="H13" s="68" t="s">
-        <v>1</v>
-      </c>
+      <c r="H13" s="68"/>
       <c r="I13" s="68"/>
-      <c r="J13" s="69" t="s">
-        <v>81</v>
-      </c>
+      <c r="J13" s="69"/>
       <c r="K13" s="69"/>
-      <c r="L13" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="69" t="s">
-        <v>41</v>
-      </c>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="69"/>
       <c r="P13" s="69"/>
       <c r="Q13" s="69"/>
@@ -4062,10 +3964,10 @@
       <c r="AQ13" s="68"/>
       <c r="AR13" s="68"/>
       <c r="AS13" s="68"/>
-      <c r="AT13" s="71"/>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="72"/>
-      <c r="AW13" s="72"/>
+      <c r="AT13" s="70"/>
+      <c r="AU13" s="70"/>
+      <c r="AV13" s="71"/>
+      <c r="AW13" s="71"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="55" t="n">
@@ -4073,66 +3975,52 @@
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="S14" s="76"/>
-      <c r="T14" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="74"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
       <c r="AN14" s="69"/>
       <c r="AO14" s="69"/>
       <c r="AP14" s="69"/>
       <c r="AQ14" s="69"/>
       <c r="AR14" s="69"/>
       <c r="AS14" s="69"/>
-      <c r="AT14" s="77"/>
-      <c r="AU14" s="77"/>
-      <c r="AV14" s="78"/>
-      <c r="AW14" s="78"/>
+      <c r="AT14" s="75"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="76"/>
+      <c r="AW14" s="76"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="55" t="n">
@@ -4141,136 +4029,104 @@
       <c r="B15" s="65"/>
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="O15" s="75"/>
-      <c r="P15" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="U15" s="76"/>
-      <c r="V15" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="W15" s="75"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="75"/>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
       <c r="AD15" s="69"/>
-      <c r="AE15" s="80"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="75"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="75"/>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="75"/>
+      <c r="AE15" s="78"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
       <c r="AN15" s="69"/>
       <c r="AO15" s="69"/>
       <c r="AP15" s="69"/>
       <c r="AQ15" s="69"/>
       <c r="AR15" s="69"/>
       <c r="AS15" s="69"/>
-      <c r="AT15" s="77"/>
-      <c r="AU15" s="77"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
+      <c r="AT15" s="75"/>
+      <c r="AU15" s="75"/>
+      <c r="AV15" s="76"/>
+      <c r="AW15" s="76"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="55" t="n">
         <v>4</v>
       </c>
       <c r="B16" s="65"/>
-      <c r="C16" s="81"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="65"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="75"/>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="75"/>
-      <c r="AL16" s="75"/>
-      <c r="AM16" s="75"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="74"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
       <c r="AN16" s="69"/>
       <c r="AO16" s="69"/>
       <c r="AP16" s="69"/>
       <c r="AQ16" s="69"/>
       <c r="AR16" s="69"/>
       <c r="AS16" s="69"/>
-      <c r="AT16" s="77"/>
-      <c r="AU16" s="77"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
+      <c r="AT16" s="75"/>
+      <c r="AU16" s="75"/>
+      <c r="AV16" s="76"/>
+      <c r="AW16" s="76"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="55" t="n">
@@ -4280,72 +4136,50 @@
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
       <c r="E17" s="65"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="S17" s="75"/>
-      <c r="T17" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI17" s="75"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="74"/>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="74"/>
+      <c r="AI17" s="74"/>
       <c r="AJ17" s="69"/>
-      <c r="AK17" s="80"/>
-      <c r="AL17" s="75"/>
-      <c r="AM17" s="75"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="74"/>
       <c r="AN17" s="69"/>
       <c r="AO17" s="69"/>
       <c r="AP17" s="69"/>
       <c r="AQ17" s="69"/>
       <c r="AR17" s="69"/>
       <c r="AS17" s="69"/>
-      <c r="AT17" s="77"/>
-      <c r="AU17" s="77"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
+      <c r="AT17" s="75"/>
+      <c r="AU17" s="75"/>
+      <c r="AV17" s="76"/>
+      <c r="AW17" s="76"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="55" t="n">
@@ -4365,66 +4199,40 @@
       <c r="M18" s="69"/>
       <c r="N18" s="69"/>
       <c r="O18" s="69"/>
-      <c r="P18" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="U18" s="75"/>
-      <c r="V18" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="76"/>
-      <c r="X18" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG18" s="70"/>
-      <c r="AH18" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI18" s="70"/>
-      <c r="AJ18" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK18" s="70"/>
-      <c r="AL18" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO18" s="75"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="69"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="69"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="74"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="74"/>
       <c r="AP18" s="69"/>
-      <c r="AQ18" s="80"/>
+      <c r="AQ18" s="78"/>
       <c r="AR18" s="69"/>
       <c r="AS18" s="69"/>
-      <c r="AT18" s="77"/>
-      <c r="AU18" s="77"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
+      <c r="AT18" s="75"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -4602,11 +4410,11 @@
   </sheetPr>
   <dimension ref="A1:AW29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK31" activeCellId="0" sqref="AK31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD12" activeCellId="0" sqref="AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6"/>
@@ -4626,304 +4434,304 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
+      <c r="A1" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
+      <c r="A2" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
+      <c r="A3" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="82"/>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
+      <c r="A4" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="82"/>
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="82"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="82"/>
+      <c r="AS4" s="82"/>
+      <c r="AT4" s="82"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="85"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="85"/>
-      <c r="AO5" s="85"/>
-      <c r="AP5" s="85"/>
-      <c r="AQ5" s="85"/>
-      <c r="AR5" s="85"/>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="85"/>
+      <c r="A5" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
+      <c r="AI5" s="83"/>
+      <c r="AJ5" s="83"/>
+      <c r="AK5" s="83"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="83"/>
+      <c r="AN5" s="83"/>
+      <c r="AO5" s="83"/>
+      <c r="AP5" s="83"/>
+      <c r="AQ5" s="83"/>
+      <c r="AR5" s="83"/>
+      <c r="AS5" s="83"/>
+      <c r="AT5" s="83"/>
     </row>
     <row r="6" s="40" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="86"/>
-      <c r="AO6" s="86"/>
-      <c r="AP6" s="86"/>
-      <c r="AQ6" s="86"/>
-      <c r="AR6" s="86"/>
-      <c r="AS6" s="86"/>
-      <c r="AT6" s="86"/>
+      <c r="A6" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="84"/>
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="84"/>
+      <c r="AP6" s="84"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AT6" s="84"/>
     </row>
     <row r="7" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
@@ -4933,7 +4741,7 @@
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
       <c r="E7" s="43" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
@@ -4979,15 +4787,15 @@
       <c r="M8" s="43"/>
       <c r="N8" s="43"/>
       <c r="O8" s="43"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
@@ -5007,16 +4815,16 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="89" t="n">
+      <c r="H9" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
       <c r="Q9" s="27" t="s">
         <v>5</v>
       </c>
@@ -5047,16 +4855,16 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="89" t="n">
+      <c r="H10" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
       <c r="Q10" s="27" t="s">
         <v>6</v>
       </c>
@@ -5087,16 +4895,16 @@
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
-      <c r="H11" s="90" t="n">
+      <c r="H11" s="88" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
       <c r="Q11" s="27" t="s">
         <v>7</v>
       </c>
@@ -5110,164 +4918,152 @@
       <c r="Y11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="92" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="93" t="s">
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="94" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>99</v>
+      <c r="A13" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>82</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
+      <c r="H13" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="100" t="s">
+      <c r="A14" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
+      <c r="E14" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="51" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
-      <c r="E15" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
@@ -5286,15 +5082,15 @@
       <c r="AP15" s="5"/>
       <c r="AQ15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="53" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -5347,7 +5143,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="54" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -5403,248 +5199,248 @@
         <v>1</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G19" s="58"/>
       <c r="H19" s="57" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I19" s="58"/>
       <c r="J19" s="59" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K19" s="58"/>
       <c r="L19" s="57" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M19" s="58"/>
       <c r="N19" s="57" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O19" s="58"/>
       <c r="P19" s="57" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="58"/>
       <c r="R19" s="57" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="S19" s="58"/>
       <c r="T19" s="57" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="U19" s="58"/>
       <c r="V19" s="57" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="W19" s="58"/>
       <c r="X19" s="59" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Y19" s="58"/>
       <c r="Z19" s="57" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AA19" s="58"/>
       <c r="AB19" s="57" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AC19" s="58"/>
       <c r="AD19" s="57" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AE19" s="58"/>
       <c r="AF19" s="57" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AG19" s="58"/>
       <c r="AH19" s="57" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AI19" s="58"/>
       <c r="AJ19" s="57" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="AK19" s="58"/>
       <c r="AL19" s="57" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AM19" s="58"/>
       <c r="AN19" s="57" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AO19" s="58"/>
       <c r="AP19" s="57" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AQ19" s="58"/>
       <c r="AR19" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AS19" s="58"/>
       <c r="AT19" s="60" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AU19" s="60"/>
       <c r="AV19" s="60" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AW19" s="60"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="61"/>
       <c r="B20" s="62" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
       <c r="F20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="P20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="R20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="S20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="T20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="U20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="V20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="W20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="X20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Y20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AA20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AB20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AC20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AD20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AE20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AF20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AI20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AJ20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AK20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AL20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AM20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AN20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AO20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AP20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AQ20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AR20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AS20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AT20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AU20" s="64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AV20" s="63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AW20" s="64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="n">
         <v>1</v>
       </c>
@@ -5652,25 +5448,15 @@
       <c r="C21" s="66"/>
       <c r="D21" s="66"/>
       <c r="E21" s="67"/>
-      <c r="F21" s="68" t="s">
-        <v>39</v>
-      </c>
+      <c r="F21" s="68"/>
       <c r="G21" s="68"/>
-      <c r="H21" s="68" t="s">
-        <v>1</v>
-      </c>
+      <c r="H21" s="68"/>
       <c r="I21" s="68"/>
-      <c r="J21" s="69" t="s">
-        <v>81</v>
-      </c>
+      <c r="J21" s="69"/>
       <c r="K21" s="69"/>
-      <c r="L21" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="69" t="s">
-        <v>41</v>
-      </c>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
       <c r="O21" s="69"/>
       <c r="P21" s="69"/>
       <c r="Q21" s="69"/>
@@ -5704,8 +5490,8 @@
       <c r="AS21" s="68"/>
       <c r="AT21" s="68"/>
       <c r="AU21" s="68"/>
-      <c r="AV21" s="104"/>
-      <c r="AW21" s="104"/>
+      <c r="AV21" s="102"/>
+      <c r="AW21" s="102"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="55" t="n">
@@ -5713,44 +5499,30 @@
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="65"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="S22" s="76"/>
-      <c r="T22" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="75"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
       <c r="AB22" s="69"/>
       <c r="AC22" s="69"/>
       <c r="AD22" s="69"/>
@@ -5771,8 +5543,8 @@
       <c r="AS22" s="69"/>
       <c r="AT22" s="69"/>
       <c r="AU22" s="69"/>
-      <c r="AV22" s="75"/>
-      <c r="AW22" s="75"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="74"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="55" t="n">
@@ -5781,49 +5553,35 @@
       <c r="B23" s="8"/>
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="O23" s="75"/>
-      <c r="P23" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="U23" s="76"/>
-      <c r="V23" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="W23" s="75"/>
-      <c r="X23" s="75"/>
-      <c r="Y23" s="75"/>
-      <c r="Z23" s="75"/>
-      <c r="AA23" s="75"/>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="75"/>
-      <c r="AE23" s="75"/>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="75"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="74"/>
+      <c r="AG23" s="74"/>
       <c r="AH23" s="69"/>
       <c r="AI23" s="69"/>
       <c r="AJ23" s="69"/>
@@ -5838,58 +5596,40 @@
       <c r="AS23" s="69"/>
       <c r="AT23" s="69"/>
       <c r="AU23" s="69"/>
-      <c r="AV23" s="75"/>
-      <c r="AW23" s="75"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="74"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="55" t="n">
         <v>4</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="81"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="65"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="U24" s="76"/>
-      <c r="V24" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="69" t="s">
-        <v>41</v>
-      </c>
+      <c r="E24" s="80"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="69"/>
       <c r="AC24" s="69"/>
       <c r="AD24" s="69"/>
       <c r="AE24" s="69"/>
@@ -5909,8 +5649,8 @@
       <c r="AS24" s="69"/>
       <c r="AT24" s="69"/>
       <c r="AU24" s="69"/>
-      <c r="AV24" s="75"/>
-      <c r="AW24" s="75"/>
+      <c r="AV24" s="74"/>
+      <c r="AW24" s="74"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="55" t="n">
@@ -5920,49 +5660,31 @@
       <c r="C25" s="65"/>
       <c r="D25" s="65"/>
       <c r="E25" s="65"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="S25" s="75"/>
-      <c r="T25" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="U25" s="76"/>
-      <c r="V25" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="W25" s="76"/>
-      <c r="X25" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC25" s="70"/>
-      <c r="AD25" s="69" t="s">
-        <v>41</v>
-      </c>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="69"/>
       <c r="AE25" s="69"/>
       <c r="AF25" s="69"/>
       <c r="AG25" s="69"/>
@@ -5980,8 +5702,8 @@
       <c r="AS25" s="69"/>
       <c r="AT25" s="69"/>
       <c r="AU25" s="69"/>
-      <c r="AV25" s="75"/>
-      <c r="AW25" s="75"/>
+      <c r="AV25" s="74"/>
+      <c r="AW25" s="74"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="55" t="n">
@@ -6001,54 +5723,30 @@
       <c r="M26" s="69"/>
       <c r="N26" s="69"/>
       <c r="O26" s="69"/>
-      <c r="P26" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="U26" s="75"/>
-      <c r="V26" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="W26" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="X26" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA26" s="76"/>
-      <c r="AB26" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC26" s="70"/>
-      <c r="AD26" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE26" s="70"/>
-      <c r="AF26" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG26" s="70"/>
-      <c r="AH26" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI26" s="76"/>
-      <c r="AJ26" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK26" s="75"/>
-      <c r="AL26" s="75"/>
-      <c r="AM26" s="75"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="74"/>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="69"/>
+      <c r="AC26" s="69"/>
+      <c r="AD26" s="69"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="69"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="74"/>
+      <c r="AK26" s="74"/>
+      <c r="AL26" s="74"/>
+      <c r="AM26" s="74"/>
       <c r="AN26" s="69"/>
       <c r="AO26" s="69"/>
       <c r="AP26" s="69"/>
@@ -6057,319 +5755,255 @@
       <c r="AS26" s="69"/>
       <c r="AT26" s="69"/>
       <c r="AU26" s="69"/>
-      <c r="AV26" s="75"/>
-      <c r="AW26" s="75"/>
+      <c r="AV26" s="74"/>
+      <c r="AW26" s="74"/>
     </row>
     <row r="27" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="105"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="105"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="105"/>
-      <c r="W27" s="105"/>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="105"/>
-      <c r="Z27" s="105"/>
-      <c r="AA27" s="105"/>
-      <c r="AB27" s="105"/>
-      <c r="AC27" s="105"/>
-      <c r="AD27" s="105"/>
-      <c r="AE27" s="105"/>
-      <c r="AF27" s="105"/>
-      <c r="AG27" s="105"/>
-      <c r="AH27" s="105"/>
-      <c r="AI27" s="105"/>
-      <c r="AJ27" s="105"/>
-      <c r="AK27" s="105"/>
-      <c r="AL27" s="105"/>
-      <c r="AM27" s="105"/>
-      <c r="AN27" s="105"/>
-      <c r="AO27" s="105"/>
-      <c r="AP27" s="105"/>
-      <c r="AQ27" s="105"/>
-      <c r="AR27" s="105"/>
-      <c r="AS27" s="105"/>
-      <c r="AT27" s="105"/>
-      <c r="AU27" s="105"/>
-      <c r="AV27" s="105"/>
-      <c r="AW27" s="105"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="103"/>
+      <c r="Y27" s="103"/>
+      <c r="Z27" s="103"/>
+      <c r="AA27" s="103"/>
+      <c r="AB27" s="103"/>
+      <c r="AC27" s="103"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="103"/>
+      <c r="AG27" s="103"/>
+      <c r="AH27" s="103"/>
+      <c r="AI27" s="103"/>
+      <c r="AJ27" s="103"/>
+      <c r="AK27" s="103"/>
+      <c r="AL27" s="103"/>
+      <c r="AM27" s="103"/>
+      <c r="AN27" s="103"/>
+      <c r="AO27" s="103"/>
+      <c r="AP27" s="103"/>
+      <c r="AQ27" s="103"/>
+      <c r="AR27" s="103"/>
+      <c r="AS27" s="103"/>
+      <c r="AT27" s="103"/>
+      <c r="AU27" s="103"/>
+      <c r="AV27" s="103"/>
+      <c r="AW27" s="103"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="55"/>
-      <c r="B28" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="107" t="s">
-        <v>106</v>
+      <c r="B28" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="G28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="H28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="I28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="J28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="J28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="K28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="L28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="L28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="M28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="N28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="N28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="O28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="P28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="P28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="Q28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="R28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="R28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="S28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="T28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="T28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="U28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="V28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="V28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="W28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="X28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="X28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="Y28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="Z28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="AA28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="AB28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="AC28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="AD28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="AE28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="AF28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="AG28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="AH28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="AI28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="AJ28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="AK28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="AL28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="AM28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="AN28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="AO28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="AP28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="AQ28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="AR28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="AS28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="AT28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="AU28" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV28" s="107" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="AV28" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="AW28" s="64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="55"/>
-      <c r="B29" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="H29" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="L29" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="M29" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="N29" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="O29" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="P29" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q29" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="S29" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="T29" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="U29" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="V29" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="W29" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="X29" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y29" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z29" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA29" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB29" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC29" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE29" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF29" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="109" t="n">
-        <v>420</v>
-      </c>
-      <c r="AH29" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="110" t="n">
-        <v>420</v>
-      </c>
-      <c r="AJ29" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="110" t="n">
-        <v>420</v>
-      </c>
-      <c r="AL29" s="108"/>
-      <c r="AM29" s="109"/>
-      <c r="AN29" s="108"/>
-      <c r="AO29" s="109"/>
-      <c r="AP29" s="108"/>
-      <c r="AQ29" s="109"/>
-      <c r="AR29" s="108"/>
-      <c r="AS29" s="109"/>
-      <c r="AT29" s="108"/>
-      <c r="AU29" s="109"/>
-      <c r="AV29" s="108"/>
-      <c r="AW29" s="109"/>
+      <c r="B29" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="107"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="107"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="107"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="107"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="107"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="107"/>
+      <c r="AH29" s="106"/>
+      <c r="AI29" s="108"/>
+      <c r="AJ29" s="106"/>
+      <c r="AK29" s="108"/>
+      <c r="AL29" s="106"/>
+      <c r="AM29" s="107"/>
+      <c r="AN29" s="106"/>
+      <c r="AO29" s="107"/>
+      <c r="AP29" s="106"/>
+      <c r="AQ29" s="107"/>
+      <c r="AR29" s="106"/>
+      <c r="AS29" s="107"/>
+      <c r="AT29" s="106"/>
+      <c r="AU29" s="107"/>
+      <c r="AV29" s="106"/>
+      <c r="AW29" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="176">

--- a/Esercitazioni_AC/2022_01_11/Es1_Cognome_Nome_CEM_2022_01_11.xlsx
+++ b/Esercitazioni_AC/2022_01_11/Es1_Cognome_Nome_CEM_2022_01_11.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Soluzione Es.1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Soluzione Es.2" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Soluzione Es.3 " sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Soluzione Es.4,5" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Soluzione Es.1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Soluzione Es.2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Soluzione Es.3 " sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Soluzione Es.4,5" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="111">
   <si>
     <r>
       <rPr>
@@ -281,10 +281,25 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Tempo minimo di esecuzione = 12 clock</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.      Si disegni il grafo delle dipendenze e si deduca il numero minimo di periodi di clock necessario a eseguire il codice assegnato tenendo conto solo delle dipendenze trovate (1 punto).</t>
   </si>
   <si>
     <t xml:space="preserve">Alee: (WAW, RAW, WAR) #si inseriscano le alee presenti per istruzione.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAW F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAR F1, RAW F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAR F3, RAW F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAW F1, RAW F3</t>
   </si>
   <si>
     <t xml:space="preserve">Da completare con la soluzione dell'esercizio.  Si riporti il grafo delle dipendenze e si deduca il numero minimo di periodi di clock necessario a eseguire il codice assegnato tenendo conto solo delle dipendenze trovate.
@@ -311,6 +326,35 @@
   </si>
   <si>
     <t xml:space="preserve">Tot</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(1,2)→(3,3)→</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(5,3)→(6,2)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(2,4)→(4,3)→</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo minimo di esecuzione = 16 clock</t>
   </si>
   <si>
     <t xml:space="preserve">3.      Si mostri la dinamica dell’esecuzione nel caso della CPU considerata nel punto 1 con 1 CRB, uno stadio di IF e uno di ID, e 2 RS per ognuna delle tre unità funzionali </t>
@@ -451,6 +495,30 @@
     <t xml:space="preserve">L</t>
   </si>
   <si>
+    <t xml:space="preserve">A0_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D0_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M0_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M0_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M0_R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0_W</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.      E’ possibile ridurre il numero di periodi di clock necessario ad eseguire il codice assegnato rispetto al valore risultante dalla risposta al punto 3? Si punti al numero minore possibile di periodi di clock e al numero minimo di modifiche, supponendo di poter apportare solo le seguenti modifiche all’architettura: </t>
   </si>
   <si>
@@ -579,6 +647,9 @@
     <t xml:space="preserve">Si completi descivendo la nuova architettura del datapath. Numero di unità funzionali nel datapath, CRB e profondità delle RSS</t>
   </si>
   <si>
+    <t xml:space="preserve">X:</t>
+  </si>
+  <si>
     <t xml:space="preserve"># eventuali unità di esecuzione agguntive.</t>
   </si>
   <si>
@@ -592,6 +663,12 @@
   </si>
   <si>
     <t xml:space="preserve"># numero CRB complessivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X0_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X0_E</t>
   </si>
   <si>
     <r>
@@ -603,7 +680,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5.      Per due  punti si disegni il film del registro f4 nel caso della dinamica di esecuzione di cui al punto 4.</t>
+      <t xml:space="preserve">5.      Per due  punti si disegni il film del registro f3 nel caso della dinamica di esecuzione di cui al punto 4.</t>
     </r>
     <r>
       <rPr>
@@ -628,6 +705,12 @@
   <si>
     <t xml:space="preserve">f3</t>
   </si>
+  <si>
+    <t xml:space="preserve">D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1</t>
+  </si>
 </sst>
 </file>
 
@@ -636,7 +719,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -730,6 +813,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1064,7 +1160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1177,6 +1273,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1193,7 +1297,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1205,23 +1309,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1365,6 +1469,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1393,7 +1501,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1401,7 +1509,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1494,10 +1602,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1573,112 +1677,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1686,11 +1684,11 @@
   </sheetPr>
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V22" activeCellId="0" sqref="V22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7"/>
@@ -2111,16 +2109,24 @@
         <v>24</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="C17" s="20" t="n">
+        <v>2</v>
+      </c>
       <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="20" t="n">
+        <v>2</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="H17" s="21" t="n">
+        <v>3</v>
+      </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="L17" s="21" t="n">
+        <v>7</v>
+      </c>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -2130,16 +2136,24 @@
         <v>25</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="C18" s="20" t="n">
+        <v>3</v>
+      </c>
       <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="E18" s="20" t="n">
+        <v>3</v>
+      </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
+      <c r="H18" s="21" t="n">
+        <v>3</v>
+      </c>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="L18" s="21" t="n">
+        <v>12</v>
+      </c>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
@@ -2149,16 +2163,24 @@
         <v>26</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="C19" s="20" t="n">
+        <v>1</v>
+      </c>
       <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="20" t="n">
+        <v>4</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="21" t="n">
+        <v>3</v>
+      </c>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
+      <c r="L19" s="21" t="n">
+        <v>7</v>
+      </c>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
@@ -2183,7 +2205,9 @@
       <c r="O21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22"/>
+      <c r="A22" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -2316,11 +2340,11 @@
   </sheetPr>
   <dimension ref="A1:AQ40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6"/>
@@ -2340,7 +2364,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -2394,7 +2418,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2485,7 +2509,9 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="26"/>
+      <c r="D5" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="27" t="s">
@@ -2506,29 +2532,35 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="D8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
@@ -2692,7 +2724,7 @@
     </row>
     <row r="15" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -2710,25 +2742,25 @@
       <c r="O15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="A16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -2760,89 +2792,113 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30" t="s">
+      <c r="E17" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="21"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="21" t="n">
+        <v>10</v>
+      </c>
       <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="K19" s="21" t="n">
+        <v>4</v>
+      </c>
       <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="M19" s="21" t="n">
+        <v>16</v>
+      </c>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="21"/>
+      <c r="A20" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="I20" s="21" t="n">
+        <v>7</v>
+      </c>
       <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="K20" s="21" t="n">
+        <v>2</v>
+      </c>
       <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="M20" s="21" t="n">
+        <v>11</v>
+      </c>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -2856,10 +2912,10 @@
       <c r="O21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
@@ -2868,21 +2924,21 @@
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
@@ -2902,11 +2958,13 @@
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21"/>
+      <c r="A25" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -2921,8 +2979,8 @@
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21"/>
@@ -2940,8 +2998,8 @@
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21"/>
@@ -2959,8 +3017,8 @@
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21"/>
@@ -2978,166 +3036,166 @@
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -3237,11 +3295,11 @@
   </sheetPr>
   <dimension ref="A1:AW19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AN18" activeCellId="0" sqref="AN18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6"/>
@@ -3260,123 +3318,123 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="4.79"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
+    <row r="1" s="39" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
       <c r="AP1" s="25"/>
       <c r="AQ1" s="25"/>
     </row>
-    <row r="2" s="40" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
+    <row r="2" s="42" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
     </row>
     <row r="3" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
       <c r="Q3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3390,7 +3448,7 @@
       <c r="Y3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -3407,16 +3465,16 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="45" t="n">
+      <c r="H4" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
       <c r="Q4" s="27" t="s">
         <v>5</v>
       </c>
@@ -3430,7 +3488,7 @@
       <c r="Y4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -3447,16 +3505,16 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="45" t="n">
+      <c r="H5" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
       <c r="Q5" s="27" t="s">
         <v>6</v>
       </c>
@@ -3470,33 +3528,33 @@
       <c r="Y5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="47" t="n">
+      <c r="C6" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="49" t="n">
+      <c r="E6" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50" t="n">
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
       <c r="Q6" s="27" t="s">
         <v>7</v>
       </c>
@@ -3510,25 +3568,25 @@
       <c r="Y6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52" t="n">
+      <c r="A7" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -3565,674 +3623,774 @@
       <c r="D8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="53"/>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="53"/>
-      <c r="AU9" s="53"/>
-      <c r="AV9" s="53"/>
-      <c r="AW9" s="53"/>
+      <c r="A9" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="55"/>
+      <c r="AO9" s="55"/>
+      <c r="AP9" s="55"/>
+      <c r="AQ9" s="55"/>
+      <c r="AR9" s="55"/>
+      <c r="AS9" s="55"/>
+      <c r="AT9" s="55"/>
+      <c r="AU9" s="55"/>
+      <c r="AV9" s="55"/>
+      <c r="AW9" s="55"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="54"/>
-      <c r="AW10" s="54"/>
+      <c r="A10" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="58"/>
-      <c r="N11" s="57" t="s">
+      <c r="B11" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="58"/>
-      <c r="P11" s="57" t="s">
+      <c r="C11" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="57" t="s">
+      <c r="D11" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="58"/>
-      <c r="T11" s="57" t="s">
+      <c r="E11" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="U11" s="58"/>
-      <c r="V11" s="57" t="s">
+      <c r="F11" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59" t="s">
+      <c r="G11" s="60"/>
+      <c r="H11" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="57" t="s">
+      <c r="I11" s="60"/>
+      <c r="J11" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="57" t="s">
+      <c r="K11" s="60"/>
+      <c r="L11" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="57" t="s">
+      <c r="M11" s="60"/>
+      <c r="N11" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="57" t="s">
+      <c r="O11" s="60"/>
+      <c r="P11" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="57" t="s">
+      <c r="Q11" s="60"/>
+      <c r="R11" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="57" t="s">
+      <c r="S11" s="60"/>
+      <c r="T11" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="57" t="s">
+      <c r="U11" s="60"/>
+      <c r="V11" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="57" t="s">
+      <c r="W11" s="60"/>
+      <c r="X11" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="57" t="s">
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="57" t="s">
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="60" t="s">
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60" t="s">
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="AW11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU11" s="62"/>
+      <c r="AV11" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW11" s="62"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="R12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="S12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="T12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="U12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="V12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="W12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="X12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW12" s="64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="55" t="n">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="T12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="U12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="V12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="W12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW12" s="66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="68"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="68"/>
-      <c r="AL13" s="68"/>
-      <c r="AM13" s="68"/>
-      <c r="AN13" s="68"/>
-      <c r="AO13" s="68"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="68"/>
-      <c r="AS13" s="68"/>
-      <c r="AT13" s="70"/>
-      <c r="AU13" s="70"/>
-      <c r="AV13" s="71"/>
-      <c r="AW13" s="71"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="70"/>
+      <c r="AM13" s="70"/>
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="70"/>
+      <c r="AP13" s="70"/>
+      <c r="AQ13" s="70"/>
+      <c r="AR13" s="70"/>
+      <c r="AS13" s="70"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="73"/>
+      <c r="AW13" s="73"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="55" t="n">
+      <c r="A14" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="74"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="74"/>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="74"/>
-      <c r="AN14" s="69"/>
-      <c r="AO14" s="69"/>
-      <c r="AP14" s="69"/>
-      <c r="AQ14" s="69"/>
-      <c r="AR14" s="69"/>
-      <c r="AS14" s="69"/>
-      <c r="AT14" s="75"/>
-      <c r="AU14" s="75"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="76"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="76"/>
+      <c r="N14" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="S14" s="77"/>
+      <c r="T14" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="76"/>
+      <c r="AK14" s="76"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="76"/>
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="78"/>
+      <c r="AU14" s="78"/>
+      <c r="AV14" s="79"/>
+      <c r="AW14" s="79"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="55" t="n">
+      <c r="A15" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="78"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="74"/>
-      <c r="AI15" s="74"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="74"/>
-      <c r="AL15" s="74"/>
-      <c r="AM15" s="74"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="75"/>
-      <c r="AU15" s="75"/>
-      <c r="AV15" s="76"/>
-      <c r="AW15" s="76"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="76"/>
+      <c r="N15" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="U15" s="77"/>
+      <c r="V15" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="76"/>
+      <c r="AH15" s="76"/>
+      <c r="AI15" s="76"/>
+      <c r="AJ15" s="76"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="76"/>
+      <c r="AM15" s="76"/>
+      <c r="AN15" s="71"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="71"/>
+      <c r="AQ15" s="71"/>
+      <c r="AR15" s="71"/>
+      <c r="AS15" s="71"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="79"/>
+      <c r="AW15" s="79"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="55" t="n">
+      <c r="A16" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="74"/>
-      <c r="AI16" s="74"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="74"/>
-      <c r="AL16" s="74"/>
-      <c r="AM16" s="74"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="69"/>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="75"/>
-      <c r="AU16" s="75"/>
-      <c r="AV16" s="76"/>
-      <c r="AW16" s="76"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="76"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="71"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="71"/>
+      <c r="AQ16" s="71"/>
+      <c r="AR16" s="71"/>
+      <c r="AS16" s="71"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="79"/>
+      <c r="AW16" s="79"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55" t="n">
+      <c r="A17" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="74"/>
-      <c r="AI17" s="74"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="74"/>
-      <c r="AM17" s="74"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69"/>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="75"/>
-      <c r="AU17" s="75"/>
-      <c r="AV17" s="76"/>
-      <c r="AW17" s="76"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="81"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="71"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="71"/>
+      <c r="AS17" s="71"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="79"/>
+      <c r="AW17" s="79"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="55" t="n">
+      <c r="A18" s="57" t="n">
         <v>6</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="74"/>
-      <c r="AN18" s="74"/>
-      <c r="AO18" s="74"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="78"/>
-      <c r="AR18" s="69"/>
-      <c r="AS18" s="69"/>
-      <c r="AT18" s="75"/>
-      <c r="AU18" s="75"/>
-      <c r="AV18" s="76"/>
-      <c r="AW18" s="76"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK18" s="76"/>
+      <c r="AL18" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="81"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="78"/>
+      <c r="AU18" s="78"/>
+      <c r="AV18" s="79"/>
+      <c r="AW18" s="79"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -4410,11 +4568,11 @@
   </sheetPr>
   <dimension ref="A1:AW29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD12" activeCellId="0" sqref="AD12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6"/>
@@ -4434,325 +4592,325 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
+      <c r="A1" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="84"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="82"/>
+      <c r="A2" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
+      <c r="A3" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="85"/>
+      <c r="AJ3" s="85"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="85"/>
+      <c r="AR3" s="85"/>
+      <c r="AS3" s="85"/>
+      <c r="AT3" s="85"/>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
+      <c r="A4" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="85"/>
+      <c r="AR4" s="85"/>
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
-      <c r="AI5" s="83"/>
-      <c r="AJ5" s="83"/>
-      <c r="AK5" s="83"/>
-      <c r="AL5" s="83"/>
-      <c r="AM5" s="83"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="83"/>
-      <c r="AP5" s="83"/>
-      <c r="AQ5" s="83"/>
-      <c r="AR5" s="83"/>
-      <c r="AS5" s="83"/>
-      <c r="AT5" s="83"/>
-    </row>
-    <row r="6" s="40" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="84"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
+      <c r="A5" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86"/>
+    </row>
+    <row r="6" s="42" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="87"/>
+      <c r="AL6" s="87"/>
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="87"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="87"/>
+      <c r="AR6" s="87"/>
+      <c r="AS6" s="87"/>
+      <c r="AT6" s="87"/>
     </row>
     <row r="7" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
       <c r="Q7" s="6" t="s">
         <v>3</v>
       </c>
@@ -4766,39 +4924,39 @@
       <c r="Y7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -4815,16 +4973,16 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="87" t="n">
+      <c r="H9" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
       <c r="Q9" s="27" t="s">
         <v>5</v>
       </c>
@@ -4838,7 +4996,7 @@
       <c r="Y9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -4855,16 +5013,16 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="87" t="n">
+      <c r="H10" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
       <c r="Q10" s="27" t="s">
         <v>6</v>
       </c>
@@ -4878,33 +5036,33 @@
       <c r="Y10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="47" t="n">
+      <c r="C11" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="49" t="n">
+      <c r="E11" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="88" t="n">
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="91" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
       <c r="Q11" s="27" t="s">
         <v>7</v>
       </c>
@@ -4918,152 +5076,164 @@
       <c r="Y11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91" t="s">
+      <c r="A12" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="93" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
+      <c r="E12" s="95" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="90" t="s">
-        <v>82</v>
+      <c r="A13" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>99</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
+      <c r="H13" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="98" t="s">
+      <c r="A14" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="99" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
+      <c r="E14" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="94"/>
+      <c r="A15" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
@@ -5089,924 +5259,1084 @@
       <c r="D16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="53"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="53"/>
-      <c r="AM17" s="53"/>
-      <c r="AN17" s="53"/>
-      <c r="AO17" s="53"/>
-      <c r="AP17" s="53"/>
-      <c r="AQ17" s="53"/>
-      <c r="AR17" s="53"/>
-      <c r="AS17" s="53"/>
-      <c r="AT17" s="53"/>
-      <c r="AU17" s="53"/>
-      <c r="AV17" s="53"/>
-      <c r="AW17" s="53"/>
+      <c r="A17" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="55"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="55"/>
+      <c r="AL17" s="55"/>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="55"/>
+      <c r="AO17" s="55"/>
+      <c r="AP17" s="55"/>
+      <c r="AQ17" s="55"/>
+      <c r="AR17" s="55"/>
+      <c r="AS17" s="55"/>
+      <c r="AT17" s="55"/>
+      <c r="AU17" s="55"/>
+      <c r="AV17" s="55"/>
+      <c r="AW17" s="55"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="54"/>
-      <c r="AS18" s="54"/>
-      <c r="AT18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
-      <c r="AW18" s="54"/>
+      <c r="A18" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="56"/>
+      <c r="AW18" s="56"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="58"/>
-      <c r="L19" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="58"/>
-      <c r="N19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="O19" s="58"/>
-      <c r="P19" s="57" t="s">
+      <c r="C19" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="57" t="s">
+      <c r="D19" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="58"/>
-      <c r="T19" s="57" t="s">
+      <c r="E19" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="U19" s="58"/>
-      <c r="V19" s="57" t="s">
+      <c r="F19" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="W19" s="58"/>
-      <c r="X19" s="59" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="57" t="s">
+      <c r="I19" s="60"/>
+      <c r="J19" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="57" t="s">
+      <c r="K19" s="60"/>
+      <c r="L19" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="57" t="s">
+      <c r="M19" s="60"/>
+      <c r="N19" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="57" t="s">
+      <c r="O19" s="60"/>
+      <c r="P19" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="57" t="s">
+      <c r="Q19" s="60"/>
+      <c r="R19" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="57" t="s">
+      <c r="S19" s="60"/>
+      <c r="T19" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="57" t="s">
+      <c r="U19" s="60"/>
+      <c r="V19" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="57" t="s">
+      <c r="W19" s="60"/>
+      <c r="X19" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="AO19" s="58"/>
-      <c r="AP19" s="57" t="s">
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="57" t="s">
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="AS19" s="58"/>
-      <c r="AT19" s="60" t="s">
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="AU19" s="60"/>
-      <c r="AV19" s="60" t="s">
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="AW19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM19" s="60"/>
+      <c r="AN19" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO19" s="60"/>
+      <c r="AP19" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ19" s="60"/>
+      <c r="AR19" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS19" s="60"/>
+      <c r="AT19" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU19" s="62"/>
+      <c r="AV19" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW19" s="62"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="N20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="O20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="R20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="S20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="T20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="U20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="V20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="W20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="X20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV20" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW20" s="64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="55" t="n">
+      <c r="A20" s="63"/>
+      <c r="B20" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="S20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="U20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="V20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="W20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="X20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW20" s="66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="57" t="n">
         <v>1</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="68"/>
-      <c r="AK21" s="68"/>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="68"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="102"/>
-      <c r="AW21" s="102"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="70"/>
+      <c r="J21" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="70"/>
+      <c r="AM21" s="70"/>
+      <c r="AN21" s="70"/>
+      <c r="AO21" s="70"/>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="70"/>
+      <c r="AR21" s="70"/>
+      <c r="AS21" s="70"/>
+      <c r="AT21" s="70"/>
+      <c r="AU21" s="70"/>
+      <c r="AV21" s="105"/>
+      <c r="AW21" s="105"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="55" t="n">
+      <c r="A22" s="57" t="n">
         <v>2</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="69"/>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="69"/>
-      <c r="AL22" s="69"/>
-      <c r="AM22" s="69"/>
-      <c r="AN22" s="69"/>
-      <c r="AO22" s="69"/>
-      <c r="AP22" s="69"/>
-      <c r="AQ22" s="69"/>
-      <c r="AR22" s="69"/>
-      <c r="AS22" s="69"/>
-      <c r="AT22" s="69"/>
-      <c r="AU22" s="69"/>
-      <c r="AV22" s="74"/>
-      <c r="AW22" s="74"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="76"/>
+      <c r="N22" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="S22" s="77"/>
+      <c r="T22" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="U22" s="76"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="76"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="76"/>
+      <c r="AJ22" s="76"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="76"/>
+      <c r="AM22" s="76"/>
+      <c r="AN22" s="71"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="71"/>
+      <c r="AQ22" s="71"/>
+      <c r="AR22" s="71"/>
+      <c r="AS22" s="71"/>
+      <c r="AT22" s="71"/>
+      <c r="AU22" s="71"/>
+      <c r="AV22" s="76"/>
+      <c r="AW22" s="76"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="55" t="n">
+      <c r="A23" s="57" t="n">
         <v>3</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="69"/>
-      <c r="AJ23" s="69"/>
-      <c r="AK23" s="69"/>
-      <c r="AL23" s="69"/>
-      <c r="AM23" s="69"/>
-      <c r="AN23" s="69"/>
-      <c r="AO23" s="69"/>
-      <c r="AP23" s="69"/>
-      <c r="AQ23" s="69"/>
-      <c r="AR23" s="69"/>
-      <c r="AS23" s="69"/>
-      <c r="AT23" s="69"/>
-      <c r="AU23" s="69"/>
-      <c r="AV23" s="74"/>
-      <c r="AW23" s="74"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="76"/>
+      <c r="N23" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="U23" s="77"/>
+      <c r="V23" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="76"/>
+      <c r="AJ23" s="76"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="76"/>
+      <c r="AM23" s="76"/>
+      <c r="AN23" s="71"/>
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="71"/>
+      <c r="AQ23" s="71"/>
+      <c r="AR23" s="71"/>
+      <c r="AS23" s="71"/>
+      <c r="AT23" s="71"/>
+      <c r="AU23" s="71"/>
+      <c r="AV23" s="76"/>
+      <c r="AW23" s="76"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="55" t="n">
+      <c r="A24" s="57" t="n">
         <v>4</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="69"/>
-      <c r="AC24" s="69"/>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="69"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="69"/>
-      <c r="AL24" s="69"/>
-      <c r="AM24" s="69"/>
-      <c r="AN24" s="69"/>
-      <c r="AO24" s="69"/>
-      <c r="AP24" s="69"/>
-      <c r="AQ24" s="69"/>
-      <c r="AR24" s="69"/>
-      <c r="AS24" s="69"/>
-      <c r="AT24" s="69"/>
-      <c r="AU24" s="69"/>
-      <c r="AV24" s="74"/>
-      <c r="AW24" s="74"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="76"/>
+      <c r="AI24" s="76"/>
+      <c r="AJ24" s="76"/>
+      <c r="AK24" s="76"/>
+      <c r="AL24" s="76"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="71"/>
+      <c r="AO24" s="71"/>
+      <c r="AP24" s="71"/>
+      <c r="AQ24" s="71"/>
+      <c r="AR24" s="71"/>
+      <c r="AS24" s="71"/>
+      <c r="AT24" s="71"/>
+      <c r="AU24" s="71"/>
+      <c r="AV24" s="76"/>
+      <c r="AW24" s="76"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="55" t="n">
+      <c r="A25" s="57" t="n">
         <v>5</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="69"/>
-      <c r="AF25" s="69"/>
-      <c r="AG25" s="69"/>
-      <c r="AH25" s="69"/>
-      <c r="AI25" s="69"/>
-      <c r="AJ25" s="69"/>
-      <c r="AK25" s="69"/>
-      <c r="AL25" s="69"/>
-      <c r="AM25" s="69"/>
-      <c r="AN25" s="69"/>
-      <c r="AO25" s="69"/>
-      <c r="AP25" s="69"/>
-      <c r="AQ25" s="69"/>
-      <c r="AR25" s="69"/>
-      <c r="AS25" s="69"/>
-      <c r="AT25" s="69"/>
-      <c r="AU25" s="69"/>
-      <c r="AV25" s="74"/>
-      <c r="AW25" s="74"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="S25" s="76"/>
+      <c r="T25" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="77"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="76"/>
+      <c r="AJ25" s="71"/>
+      <c r="AK25" s="81"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="76"/>
+      <c r="AN25" s="71"/>
+      <c r="AO25" s="71"/>
+      <c r="AP25" s="71"/>
+      <c r="AQ25" s="71"/>
+      <c r="AR25" s="71"/>
+      <c r="AS25" s="71"/>
+      <c r="AT25" s="71"/>
+      <c r="AU25" s="71"/>
+      <c r="AV25" s="76"/>
+      <c r="AW25" s="76"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="55" t="n">
+      <c r="A26" s="57" t="n">
         <v>6</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="69"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="74"/>
-      <c r="AJ26" s="74"/>
-      <c r="AK26" s="74"/>
-      <c r="AL26" s="74"/>
-      <c r="AM26" s="74"/>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="69"/>
-      <c r="AS26" s="69"/>
-      <c r="AT26" s="69"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="74"/>
-      <c r="AW26" s="74"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI26" s="76"/>
+      <c r="AJ26" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK26" s="76"/>
+      <c r="AL26" s="76"/>
+      <c r="AM26" s="76"/>
+      <c r="AN26" s="76"/>
+      <c r="AO26" s="76"/>
+      <c r="AP26" s="71"/>
+      <c r="AQ26" s="71"/>
+      <c r="AR26" s="71"/>
+      <c r="AS26" s="71"/>
+      <c r="AT26" s="71"/>
+      <c r="AU26" s="71"/>
+      <c r="AV26" s="76"/>
+      <c r="AW26" s="76"/>
     </row>
     <row r="27" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="103"/>
-      <c r="AA27" s="103"/>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="103"/>
-      <c r="AG27" s="103"/>
-      <c r="AH27" s="103"/>
-      <c r="AI27" s="103"/>
-      <c r="AJ27" s="103"/>
-      <c r="AK27" s="103"/>
-      <c r="AL27" s="103"/>
-      <c r="AM27" s="103"/>
-      <c r="AN27" s="103"/>
-      <c r="AO27" s="103"/>
-      <c r="AP27" s="103"/>
-      <c r="AQ27" s="103"/>
-      <c r="AR27" s="103"/>
-      <c r="AS27" s="103"/>
-      <c r="AT27" s="103"/>
-      <c r="AU27" s="103"/>
-      <c r="AV27" s="103"/>
-      <c r="AW27" s="103"/>
+      <c r="A27" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="106"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="106"/>
+      <c r="AI27" s="106"/>
+      <c r="AJ27" s="106"/>
+      <c r="AK27" s="106"/>
+      <c r="AL27" s="106"/>
+      <c r="AM27" s="106"/>
+      <c r="AN27" s="106"/>
+      <c r="AO27" s="106"/>
+      <c r="AP27" s="106"/>
+      <c r="AQ27" s="106"/>
+      <c r="AR27" s="106"/>
+      <c r="AS27" s="106"/>
+      <c r="AT27" s="106"/>
+      <c r="AU27" s="106"/>
+      <c r="AV27" s="106"/>
+      <c r="AW27" s="106"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="55"/>
-      <c r="B28" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="J28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="K28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="L28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="M28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="N28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="O28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="P28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="R28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="S28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="T28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="U28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="V28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="W28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="X28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU28" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV28" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW28" s="64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="55"/>
-      <c r="B29" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="107"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="107"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="107"/>
-      <c r="AF29" s="106"/>
-      <c r="AG29" s="107"/>
-      <c r="AH29" s="106"/>
-      <c r="AI29" s="108"/>
-      <c r="AJ29" s="106"/>
-      <c r="AK29" s="108"/>
-      <c r="AL29" s="106"/>
-      <c r="AM29" s="107"/>
-      <c r="AN29" s="106"/>
-      <c r="AO29" s="107"/>
-      <c r="AP29" s="106"/>
-      <c r="AQ29" s="107"/>
-      <c r="AR29" s="106"/>
-      <c r="AS29" s="107"/>
-      <c r="AT29" s="106"/>
-      <c r="AU29" s="107"/>
-      <c r="AV29" s="106"/>
-      <c r="AW29" s="107"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="J28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="N28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="O28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="R28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="S28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="T28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="U28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="V28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="W28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="X28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW28" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="57"/>
+      <c r="B29" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="M29" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="O29" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q29" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="S29" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="U29" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="W29" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="X29" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y29" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA29" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC29" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE29" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF29" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="110" t="n">
+        <v>420</v>
+      </c>
+      <c r="AH29" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="110" t="n">
+        <v>420</v>
+      </c>
+      <c r="AJ29" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="110" t="n">
+        <v>420</v>
+      </c>
+      <c r="AL29" s="109"/>
+      <c r="AM29" s="110"/>
+      <c r="AN29" s="109"/>
+      <c r="AO29" s="110"/>
+      <c r="AP29" s="109"/>
+      <c r="AQ29" s="110"/>
+      <c r="AR29" s="109"/>
+      <c r="AS29" s="110"/>
+      <c r="AT29" s="109"/>
+      <c r="AU29" s="110"/>
+      <c r="AV29" s="109"/>
+      <c r="AW29" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="176">
+  <mergeCells count="174">
     <mergeCell ref="A1:AT1"/>
     <mergeCell ref="A2:AT2"/>
     <mergeCell ref="A3:AT3"/>
@@ -6104,7 +6434,6 @@
     <mergeCell ref="X23:Y23"/>
     <mergeCell ref="Z23:AA23"/>
     <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
     <mergeCell ref="AF23:AG23"/>
     <mergeCell ref="AH23:AI23"/>
     <mergeCell ref="AJ23:AK23"/>
@@ -6151,7 +6480,6 @@
     <mergeCell ref="AD25:AE25"/>
     <mergeCell ref="AF25:AG25"/>
     <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AJ25:AK25"/>
     <mergeCell ref="AL25:AM25"/>
     <mergeCell ref="AN25:AO25"/>
     <mergeCell ref="AP25:AQ25"/>
